--- a/biology/Botanique/Craterellus_cornucopioides/Craterellus_cornucopioides.xlsx
+++ b/biology/Botanique/Craterellus_cornucopioides/Craterellus_cornucopioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craterellus cornucopioides
-Craterellus cornucopioides, en français la trompette de la mort, trompette des morts[1], Craterelle en forme de corne d'abondance ou corne d'abondance, est une espèce de champignons (Fungi) basidiomycète de la  famille des Cantharellaceae, présent dans les forêts de l'hémisphère nord.
+Craterellus cornucopioides, en français la trompette de la mort, trompette des morts, Craterelle en forme de corne d'abondance ou corne d'abondance, est une espèce de champignons (Fungi) basidiomycète de la  famille des Cantharellaceae, présent dans les forêts de l'hémisphère nord.
 C'est un champignon comestible, infundibuliforme comme les chanterelles, entièrement creux et dont l'hyménium n'est pas plissé, au contraire des chanterelles.
 </t>
         </is>
@@ -515,13 +527,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom scientifique accepté
-Le nom binomial scientifique accepté est Craterellus cornucopioides (L.) Pers. 1825[2] (l'épithèthe cornucopioides signifiant « en forme de corne d'abondance »).
-Basionyme, synonymes, et binômes obsolètes
-Cantharellus cornucopioides (L.) Fr. 1821[3]
-Craterella cornucopioides (L.) Pers. 1797[4]
-Craterellus ochrosporus Burt 1914[5]
-Dendrosarcus cornucopioides (Pers.) Kuntze 1898[6]
+          <t>Nom scientifique accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom binomial scientifique accepté est Craterellus cornucopioides (L.) Pers. 1825 (l'épithèthe cornucopioides signifiant « en forme de corne d'abondance »).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Craterellus_cornucopioides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craterellus_cornucopioides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Basionyme, synonymes, et binômes obsolètes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cantharellus cornucopioides (L.) Fr. 1821
+Craterella cornucopioides (L.) Pers. 1797
+Craterellus ochrosporus Burt 1914
+Dendrosarcus cornucopioides (Pers.) Kuntze 1898
 Helvella cornucopioides (L.) Bull. 1791 (synonyme)
 Merulius cornucopioides (L.) Pers. 1801 (synonyme)
 Merulius cornucopioides (L.) With. 1792 (synonyme)
@@ -531,107 +584,81 @@
 Peziza cornucopioides L. 1753 (synonyme)
 Pleurotus cornucopioides (Pers.) Gillet 1876 (synonyme)
 Sterbeeckia cornucopioides (L.) Dumort. 1822 (synonyme)
-Noms vulgaires et vernaculaires
-Les noms vernaculaires les plus usuels sont  corne d'abondance[7] pour sa forme, trompette des morts[8], trompette de la mort[9] pour sa couleur noire et son abondance aux environs de la Toussaint (une légende les associe aux morts qui sortent de terre pour emboucher ces trompettes et exécuter un concert audible que par eux seuls), ou encore chanterelle noire (anglo-saxon)[10].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Craterellus_cornucopioides</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Craterellus_cornucopioides</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les noms vernaculaires les plus usuels sont  corne d'abondance pour sa forme, trompette des morts, trompette de la mort pour sa couleur noire et son abondance aux environs de la Toussaint (une légende les associe aux morts qui sortent de terre pour emboucher ces trompettes et exécuter un concert audible que par eux seuls), ou encore chanterelle noire (anglo-saxon).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Craterellus_cornucopioides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craterellus_cornucopioides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sporophore qui dépasse rarement 10 cm est très peu charnu et entièrement creux, en forme de trompette (cantharelloïde), évasé en entonnoir avec une marge largement festonnée et irrégulière. La cuticule est couverte d'écailles (squameuse), gris noir à brun sombre ou fauve en fonction du degré hygrométrique ; le pied est creux, de la même couleur que le chapeau et s'amincissant à la base. La face externe qui porte l'hyménium onduleux est gris bleuté. Son odeur est agréable : mélange humide, fongique et fruité rappelant la mirabelle[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sporophore qui dépasse rarement 10 cm est très peu charnu et entièrement creux, en forme de trompette (cantharelloïde), évasé en entonnoir avec une marge largement festonnée et irrégulière. La cuticule est couverte d'écailles (squameuse), gris noir à brun sombre ou fauve en fonction du degré hygrométrique ; le pied est creux, de la même couleur que le chapeau et s'amincissant à la base. La face externe qui porte l'hyménium onduleux est gris bleuté. Son odeur est agréable : mélange humide, fongique et fruité rappelant la mirabelle.
 			Cuticule squameuse Sporophore gris fauve à l'état sec.
 			Sporophore plus sombre à l'état humide.
 			Variété flavicans,colorée de jaune.
-La variété flavicans a des teintes jaunâtres, la sous-espèce roseus des teintes rosées sur le dessus du cornet avec une teinte plus claire du pied[12]. On distingue encore var. mediosporus, var. crispus, var. parvisporus et var. multiplex.
-Craterellus cornucopioides est parfois considérée comme un complexe d'espèces et certaines espèces ont été créées sur des bases morphologiques et synonymisées sur des bases génétiques. C'est notamment le cas de la Nord-Américaine Craterellus fallax, morphologiquement très proche qui s'en distingue essentiellement par sa sporée jaune-orangé, alors que celle de C. cornucopioides est blanche. En Europe, il existe la Trompette jaune, Craterellus konradii, une espèce morphologiquement semblable mais jaune et parfois bicolore. Une étude génétique de 2000[13] avait conclu leur synonymie sur la base d'un gène commun. Cependant, une autre étude de 2010[14] portant uniquement sur C. fallax compare un deuxième gène et conclut à sa spécificité[15]. Il pourrait en être de même pour C. konradii.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Craterellus_cornucopioides</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Craterellus_cornucopioides</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Confusions</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Craterellus cornucopioides est proche de Craterellus cinereus dont l'hyménium est plissé. Le genre Pseudocraterellus, et notamment Pseudocraterellus undulatus, s'en distingue par une marge beaucoup plus sinueuse et par un hyménium légèrement strié et par sa couleur brun sur la face intérieure, et plutôt gris sur la face extérieure. Inocybe tahquamenonensis (en) est également un champignon noir mais la forme de son chapeau avec des lamelles inférieures, permet de ne pas confondre la trompette avec ce champignon toxique. Les espèces du genre Strobilomyces ont également un chapeau noir caractéristique à pores.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Craterellus_cornucopioides</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Craterellus_cornucopioides</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Habitat et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce, très répandue, pousse par groupes essentiellement dans les forêts de feuillus (hêtres, chênes, châtaigniers, noisetiers) ou parfois sous les forêts de conifères, appréciant les sols lourds et très humides (argileux, par exemple). Ces chanterelles poussent en troupes, presque en tapis au sein de la litière des feuilles mortes, dans les lieux sombres[16]. Elles apparaissent en automne (d'août à novembre)[17], et peuvent être très abondantes après de fortes pluies. Ce champignon est parfois difficile à distinguer du sol à cause de sa couleur sombre, de sa forme irrégulière, de sa petite taille et parce qu'il est souvent recouvert de feuilles mortes.
-On le trouve en Amérique du Nord, en Europe, au Japon et en Corée. En Europe, la trompette de la mort est généralement commune, mais elle semble être rare dans certains pays comme les Pays-Bas[18].
+La variété flavicans a des teintes jaunâtres, la sous-espèce roseus des teintes rosées sur le dessus du cornet avec une teinte plus claire du pied. On distingue encore var. mediosporus, var. crispus, var. parvisporus et var. multiplex.
+Craterellus cornucopioides est parfois considérée comme un complexe d'espèces et certaines espèces ont été créées sur des bases morphologiques et synonymisées sur des bases génétiques. C'est notamment le cas de la Nord-Américaine Craterellus fallax, morphologiquement très proche qui s'en distingue essentiellement par sa sporée jaune-orangé, alors que celle de C. cornucopioides est blanche. En Europe, il existe la Trompette jaune, Craterellus konradii, une espèce morphologiquement semblable mais jaune et parfois bicolore. Une étude génétique de 2000 avait conclu leur synonymie sur la base d'un gène commun. Cependant, une autre étude de 2010 portant uniquement sur C. fallax compare un deuxième gène et conclut à sa spécificité. Il pourrait en être de même pour C. konradii.
 </t>
         </is>
       </c>
@@ -657,16 +684,85 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Confusions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craterellus cornucopioides est proche de Craterellus cinereus dont l'hyménium est plissé. Le genre Pseudocraterellus, et notamment Pseudocraterellus undulatus, s'en distingue par une marge beaucoup plus sinueuse et par un hyménium légèrement strié et par sa couleur brun sur la face intérieure, et plutôt gris sur la face extérieure. Inocybe tahquamenonensis (en) est également un champignon noir mais la forme de son chapeau avec des lamelles inférieures, permet de ne pas confondre la trompette avec ce champignon toxique. Les espèces du genre Strobilomyces ont également un chapeau noir caractéristique à pores.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Craterellus_cornucopioides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craterellus_cornucopioides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce, très répandue, pousse par groupes essentiellement dans les forêts de feuillus (hêtres, chênes, châtaigniers, noisetiers) ou parfois sous les forêts de conifères, appréciant les sols lourds et très humides (argileux, par exemple). Ces chanterelles poussent en troupes, presque en tapis au sein de la litière des feuilles mortes, dans les lieux sombres. Elles apparaissent en automne (d'août à novembre), et peuvent être très abondantes après de fortes pluies. Ce champignon est parfois difficile à distinguer du sol à cause de sa couleur sombre, de sa forme irrégulière, de sa petite taille et parce qu'il est souvent recouvert de feuilles mortes.
+On le trouve en Amérique du Nord, en Europe, au Japon et en Corée. En Europe, la trompette de la mort est généralement commune, mais elle semble être rare dans certains pays comme les Pays-Bas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Craterellus_cornucopioides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Craterellus_cornucopioides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrairement à ce que son nom pourrait laisser supposer, la trompette de la mort est un excellent comestible dont la chair a un parfum caractéristique rappelant l'odeur de la truffe[19].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement à ce que son nom pourrait laisser supposer, la trompette de la mort est un excellent comestible dont la chair a un parfum caractéristique rappelant l'odeur de la truffe.
 C'est un champignon léger qui apporte des bienfaits à l'organisme : son apport calorique ne dépasse pas les 15 kcal/100 g, il comporte beaucoup de fibres (3 g/100 g), des protéines (2 g/100 g), des glucides (0,5 g/100 g), des lipides (0,5 g/100 g). Il apporte également beaucoup de minéraux (potassium, phosphore, fer) et de nombreuses vitamines (B, D, E, K). Les trompettes de la mort permettent le bon fonctionnement du transit et des cellules, favorisent la circulation sanguine et le développement osseux.[réf. nécessaire]
 			Dans la poêle avant cuisson.
 			Ayant dégorgé leur eau après une demi-heure de cuisson à feu doux.
-Il est conseillé de conserver les trompettes de la mort maximum 24 heures après la récolte, sinon elles deviennent fragiles. Pour nettoyer les champignons, il suffit de les brosser doucement ou de les passer rapidement sous l’eau, puis de les essuyer. Elles se sèchent particulièrement bien et peuvent être réduites en poudre sans inconvénient[20]. Pour sécher les grands exemplaires, on peut les enfiler sur un fil et les suspendre. On peut les garder un an après les avoir séchées, puis il faut les enfermer dans un récipient hermétique et les placer à l’abri de la lumière. Pour les réhydrater, on peut les plonger quelques minutes dans de l'eau tiède[21].
+Il est conseillé de conserver les trompettes de la mort maximum 24 heures après la récolte, sinon elles deviennent fragiles. Pour nettoyer les champignons, il suffit de les brosser doucement ou de les passer rapidement sous l’eau, puis de les essuyer. Elles se sèchent particulièrement bien et peuvent être réduites en poudre sans inconvénient. Pour sécher les grands exemplaires, on peut les enfiler sur un fil et les suspendre. On peut les garder un an après les avoir séchées, puis il faut les enfermer dans un récipient hermétique et les placer à l’abri de la lumière. Pour les réhydrater, on peut les plonger quelques minutes dans de l'eau tiède.
 </t>
         </is>
       </c>
